--- a/backend/data/usage.xlsx
+++ b/backend/data/usage.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,541 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>09:26:41</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>80171.14999999999</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2835151.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25925.16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12434.88</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>01-123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>09:27:30</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11605.89</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09:27:40</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tak</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2409889.48</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22029.66</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10569.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>09:27:53</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>09:33:05</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11605.89</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>214242</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>09:33:06</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>09:33:11</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09:34:02</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09:38:19</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>65</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09:38:55</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09:39:03</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>09:39:14</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>74826.42999999999</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2646142.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24196.82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11605.89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>09:45:26</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>65</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mężczyzna</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>68412.75</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nie</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2419330.64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22122.81</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10611.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
